--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mijn_drive\our_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6842D0C1-D614-4559-8AB0-54922DC2C613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7DEC7A-4FC9-4E31-8131-2D3DE0950872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>stocking_rate_grasslands</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -286,7 +292,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C992"/>
+  <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,329 +529,329 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1">
-        <v>121.81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>26.07</v>
+        <v>121.81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>4.5</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>211.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>320</v>
+        <v>211.52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f>((32)*0.27)+(28*0.4)</f>
         <v>19.840000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>1000000</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>80000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2">
-        <v>881.60698690000004</v>
+      <c r="C13" s="1">
+        <v>80000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1">
-        <v>4981</v>
+      <c r="C14" s="2">
+        <v>881.60698690000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
-        <v>137.5</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>14.081</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>23.53</v>
+        <v>14.081</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>1200</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>20.322579999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45.2258</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>2.6667000000000001</v>
+        <v>45.2258</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>11.333299999999999</v>
+        <v>2.6667000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>2.3112724610000002</v>
+        <v>11.333299999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>13.675028729999999</v>
+        <v>2.3112724610000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13.675028729999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f>2800*3600</f>
         <v>10080000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5">
-        <v>438</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
-        <v>1620</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5">
-        <v>210.5</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="5">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
@@ -856,62 +861,72 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
+      <c r="A32" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <f>(73+164.9457)*3600</f>
         <v>856604.5199999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1">
-        <v>47826</v>
-      </c>
-    </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="1">
+        <v>47826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1">
         <v>2656.25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1867,6 +1882,7 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7DEC7A-4FC9-4E31-8131-2D3DE0950872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B3AFA-CD53-4405-AB6A-0093BF158258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,99 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Siebrant Hendriks</author>
+    <author>tc={4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{B7F6A137-766F-4D62-B86E-AD49EB05156B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Siebrant Hendriks:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cropping costs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{7BFF1952-D279-4F82-AEC7-1D7B87FE6079}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Siebrant Hendriks:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cropping cots</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Rather low, sure is right?</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E21B32C5-9E14-4CD7-99BF-9A29FB179F99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Siebrant Hendriks:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cropping cost</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -77,9 +168,6 @@
     <t>import_chicken_manure</t>
   </si>
   <si>
-    <t>minimum_digestate_spreaded</t>
-  </si>
-  <si>
     <t>maximum_digestate_spreadable</t>
   </si>
   <si>
@@ -204,16 +292,19 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>animal_maintenance</t>
+  </si>
+  <si>
+    <t>€/LU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +349,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,10 +383,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,6 +410,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Siebrant Hendriks" id="{F4314A2C-E2B5-45FD-ACDF-7F28E9AEF051}" userId="S::Siebrant15489641@edu.surfspot.nl::bc881777-2eff-420d-be25-32aeb19e7d68" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,12 +614,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C15" dT="2023-12-24T15:00:34.95" personId="{F4314A2C-E2B5-45FD-ACDF-7F28E9AEF051}" id="{4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}">
+    <text>Rather low, sure is right?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -530,10 +647,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -563,10 +680,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>4.5</v>
@@ -574,10 +691,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>0.6</v>
@@ -610,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>300</v>
@@ -621,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <f>((32)*0.27)+(28*0.4)</f>
@@ -641,43 +758,43 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>1000000</v>
+        <v>14.081</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>80000</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2">
-        <v>881.60698690000004</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>4981</v>
@@ -685,10 +802,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>137.5</v>
@@ -696,57 +813,57 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
-        <v>14.081</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>23.53</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20.322579999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>20.322579999999999</v>
+        <v>45.2258</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>45.2258</v>
+        <v>2.6667000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>2.6667000000000001</v>
+        <v>11.333299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>11.333299999999999</v>
+        <v>2.3112724610000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>2.3112724610000002</v>
+        <v>13.675028729999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,104 +904,102 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>13.675028729999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1">
         <f>2800*3600</f>
         <v>10080000</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="5">
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4">
         <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="5">
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4">
         <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5">
-        <v>210.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6">
+        <v>34</v>
+      </c>
+      <c r="C31" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -895,10 +1010,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1">
         <f>(73+164.9457)*3600</f>
@@ -907,10 +1022,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>47826</v>
@@ -918,10 +1033,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>2656.25</v>
@@ -1887,5 +2002,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB8592-4813-4FEE-BAD3-EA2005304EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC921A75-CD17-45B8-B46E-5757767CC4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +396,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -920,7 +921,9 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="8">
+        <v>528.11239999999998</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBB214-BE6E-4D13-A4D4-8FBC3233B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00DADA-3677-4ADA-B7D9-16B19BC26297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8235" yWindow="4410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00DADA-3677-4ADA-B7D9-16B19BC26297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D442B91-FE65-41D0-9CD8-82983A2C9F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D442B91-FE65-41D0-9CD8-82983A2C9F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26B18C-16D3-453E-A1ED-DAD899F8DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,11 +395,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -404,6 +408,11 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +645,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -656,10 +665,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="1">
@@ -667,10 +676,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
@@ -678,10 +687,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -689,10 +698,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
@@ -700,10 +709,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="1">
@@ -711,10 +720,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -722,10 +731,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -733,10 +742,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1">
@@ -744,10 +753,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="1">
@@ -756,10 +765,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
@@ -767,10 +776,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
@@ -778,10 +787,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
@@ -789,10 +798,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1">
@@ -800,21 +809,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>1000144.4047619046</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
@@ -822,10 +831,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="1">
@@ -833,10 +842,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="1">
@@ -844,10 +853,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
@@ -855,10 +864,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1">
@@ -866,10 +875,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
@@ -877,10 +886,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
@@ -888,10 +897,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
@@ -899,10 +908,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
@@ -910,10 +919,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="1">
@@ -922,10 +931,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C26">
@@ -933,87 +942,87 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>210.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1">
@@ -1021,10 +1030,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="1">
@@ -1033,10 +1042,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="1">
@@ -1044,10 +1053,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="1">

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26B18C-16D3-453E-A1ED-DAD899F8DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD17F04-0267-4578-886A-5DD4B2CA0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="5">
-        <v>1000144.4047619046</v>
+        <v>1000144.4047619</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD17F04-0267-4578-886A-5DD4B2CA0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBB4A2-AABD-4854-89A0-08AC5C08FF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBB4A2-AABD-4854-89A0-08AC5C08FF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162F1E8-004B-4E04-BE57-A89F37D39A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162F1E8-004B-4E04-BE57-A89F37D39A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC715B-44EE-44CD-8BC8-3A084B2ACB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Siebrant Hendriks</author>
-    <author>tc={4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}</author>
   </authors>
   <commentList>
     <comment ref="A9" authorId="0" shapeId="0" xr:uid="{B7F6A137-766F-4D62-B86E-AD49EB05156B}">
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{7BFF1952-D279-4F82-AEC7-1D7B87FE6079}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{7BFF1952-D279-4F82-AEC7-1D7B87FE6079}">
       <text>
         <r>
           <rPr>
@@ -86,19 +85,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-cropping cots</t>
+cropping cost</t>
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Rather low, sure is right?</t>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E21B32C5-9E14-4CD7-99BF-9A29FB179F99}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{E21B32C5-9E14-4CD7-99BF-9A29FB179F99}">
       <text>
         <r>
           <rPr>
@@ -127,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -150,9 +141,6 @@
     <t>rented_land</t>
   </si>
   <si>
-    <t>fuel_use_harvester</t>
-  </si>
-  <si>
     <t>fuel_price</t>
   </si>
   <si>
@@ -298,6 +286,15 @@
   </si>
   <si>
     <t>land_rent</t>
+  </si>
+  <si>
+    <t>fuel_use_harvester_cropping</t>
+  </si>
+  <si>
+    <t>fuel_use_harvester_grassland</t>
+  </si>
+  <si>
+    <t>fuel_use_harvester_meadow</t>
   </si>
 </sst>
 </file>
@@ -428,12 +425,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Siebrant Hendriks" id="{F4314A2C-E2B5-45FD-ACDF-7F28E9AEF051}" userId="S::Siebrant15489641@edu.surfspot.nl::bc881777-2eff-420d-be25-32aeb19e7d68" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,20 +623,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2023-12-24T15:00:34.95" personId="{F4314A2C-E2B5-45FD-ACDF-7F28E9AEF051}" id="{4DCEFDBB-C98B-4E8C-BD57-668F50E9B4D4}">
-    <text>Rather low, sure is right?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C993"/>
+  <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,13 +649,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +682,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>4.5</v>
@@ -710,10 +693,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>0.6</v>
@@ -743,10 +726,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>300</v>
@@ -754,80 +737,76 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
         <f>((32)*0.27)+(28*0.4)</f>
         <v>19.840000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>14.081</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>23.53</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>1200</v>
+        <v>14.081</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1000144.4047619</v>
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23.53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>137.5</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,236 +814,256 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1">
-        <v>24800</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1000144.4047619</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>46</v>
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>300000</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <v>20.322579999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45.2258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.6667000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>11.333299999999999</v>
+        <v>45.2258</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>2.3112724610000002</v>
+        <v>2.6667000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11.333299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.3112724610000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13.675028729999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>13.675028729999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1">
         <f>2800*3600</f>
         <v>10080000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
+      <c r="C28">
         <v>528.11239999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
-        <v>210.5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2">
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1">
         <f>(73+164.9457)*3600</f>
         <v>856604.5199999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>47826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="1">
-        <v>47826</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
         <v>2656.25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2019,6 +2018,8 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/estate_input.xlsx
+++ b/estate_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC715B-44EE-44CD-8BC8-3A084B2ACB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7562AD5-7A86-4BD4-9FBC-AACDB0DB8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15930" yWindow="0" windowWidth="12870" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estate_input" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>€/Kg</t>
   </si>
   <si>
-    <t>regular_labor_cost</t>
-  </si>
-  <si>
     <t>€/Hour</t>
   </si>
   <si>
@@ -295,17 +292,27 @@
   </si>
   <si>
     <t>fuel_use_harvester_meadow</t>
+  </si>
+  <si>
+    <t>regular_labour_cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,24 +399,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,7 +634,7 @@
   <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,21 +654,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
@@ -670,10 +676,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -681,32 +687,32 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>48</v>
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -714,10 +720,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -725,11 +731,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>300</v>
@@ -737,28 +743,28 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <f>((32)*0.27)+(28*0.4)</f>
@@ -777,154 +783,154 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>14.081</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>23.53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>45</v>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="5">
         <v>1000144.4047619</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>137.5</v>
+        <v>2.8899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>45</v>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>24800</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>45</v>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>300000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>20.322579999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>45.2258</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>2.6667000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>22</v>
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>11.333299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>20</v>
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>2.3112724610000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>22</v>
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>13.675028729999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>46</v>
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <f>2800*3600</f>
@@ -933,54 +939,54 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C28">
         <v>528.11239999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>39</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="2">
         <v>1620</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>36</v>
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="2">
         <v>210.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="2">
         <v>94</v>
@@ -988,32 +994,32 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>32</v>
+      <c r="A35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -1021,7 +1027,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>3</v>
@@ -1032,10 +1038,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f>(73+164.9457)*3600</f>
@@ -1044,10 +1050,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <v>47826</v>
@@ -1055,10 +1061,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>2656.25</v>
@@ -2021,7 +2027,7 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
